--- a/src/test/resources/ExcelSheets/Book22.xlsx
+++ b/src/test/resources/ExcelSheets/Book22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15780" windowHeight="11220" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14520" windowHeight="11220" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Register" sheetId="3" r:id="rId3"/>
     <sheet name="checkout" sheetId="4" r:id="rId4"/>
     <sheet name="Iconic" sheetId="5" r:id="rId5"/>
+    <sheet name="Iconic Product" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
   <oleSize ref="A1:N36"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
   <si>
     <t>Row</t>
   </si>
@@ -217,6 +218,48 @@
   </si>
   <si>
     <t>Wine, Cuisine &amp; Kitchen</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.25 X 2 3/8" Matt White Forma Floater</t>
+  </si>
+  <si>
+    <t>Dunes at Dawn Grande on Canvas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.125" X 2 3/8" Matt Black Forma Floater</t>
+  </si>
+  <si>
+    <t>Graphic Serenity III Grande onCanvas</t>
+  </si>
+  <si>
+    <t>Graphic Serenity II Grande onCanvas</t>
+  </si>
+  <si>
+    <t>Graphic Serenity I Grande onCanvas</t>
+  </si>
+  <si>
+    <t>Classification II Grande on Canvas</t>
+  </si>
+  <si>
+    <t>Classification I Grande on Canvas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+9/16" X 2 3/8" Silver Forma Floater</t>
+  </si>
+  <si>
+    <t>Round Green Grnade on Canvas</t>
+  </si>
+  <si>
+    <t>Round Dot Green Grande on Canvas</t>
   </si>
 </sst>
 </file>
@@ -907,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A48" sqref="A48:A105"/>
     </sheetView>
   </sheetViews>
@@ -924,234 +967,301 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="B2" t="s" s="0">
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="B3" t="s" s="0">
         <v>21</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="B4" t="s" s="0">
         <v>22</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="B5" t="s" s="0">
         <v>23</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="B6" t="s" s="0">
         <v>24</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="B7" t="s" s="0">
         <v>25</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2">
       <c r="B8" t="s" s="0">
         <v>26</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2">
       <c r="B9" t="s" s="0">
         <v>27</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2">
       <c r="B10" t="s" s="0">
         <v>28</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2">
       <c r="B11" t="s" s="0">
         <v>29</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2">
       <c r="B12" t="s" s="0">
         <v>30</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2">
       <c r="B13" t="s" s="0">
         <v>31</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2">
       <c r="B14" t="s" s="0">
         <v>32</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2">
       <c r="B15" t="s" s="0">
         <v>33</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2">
       <c r="B16" t="s" s="0">
         <v>34</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="2:2">
       <c r="B17" t="s" s="0">
         <v>35</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="2:2">
       <c r="B18" t="s" s="0">
         <v>36</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="2:2">
       <c r="B19" t="s" s="0">
         <v>37</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="2:2">
       <c r="B20" t="s" s="0">
         <v>38</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="2:2">
       <c r="B21" t="s" s="0">
         <v>39</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="2:2">
       <c r="B22" t="s" s="0">
         <v>40</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="2:2">
       <c r="B23" t="s" s="0">
         <v>41</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="2:2">
       <c r="B24" t="s" s="0">
         <v>42</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="2:2">
       <c r="B25" t="s" s="0">
         <v>43</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="2:2">
       <c r="B26" t="s" s="0">
         <v>44</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="2:2">
       <c r="B27" t="s" s="0">
         <v>45</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="2:2">
       <c r="B28" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="2:2">
       <c r="B29" t="s" s="0">
         <v>47</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="2:2">
       <c r="B30" t="s" s="0">
         <v>48</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="2:2">
       <c r="B31" t="s" s="0">
         <v>49</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="2:2">
       <c r="B32" t="s" s="0">
         <v>50</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="2:2">
       <c r="B33" t="s" s="0">
         <v>51</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="2:2">
       <c r="B34" t="s" s="0">
         <v>52</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="2:2">
       <c r="B35" t="s" s="0">
         <v>53</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="2:2">
       <c r="B36" t="s" s="0">
         <v>54</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="2:2">
       <c r="B37" t="s" s="0">
         <v>55</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="2:2">
       <c r="B38" t="s" s="0">
         <v>56</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="2:2">
       <c r="B39" t="s" s="0">
         <v>57</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="2:2">
       <c r="B40" t="s" s="0">
         <v>58</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="2:2">
       <c r="B41" t="s" s="0">
         <v>59</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="2:2">
       <c r="B42" t="s" s="0">
         <v>60</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="2:2">
       <c r="B43" t="s" s="0">
         <v>61</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="2:2">
       <c r="B44" t="s" s="0">
         <v>62</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="2:2">
       <c r="B45" t="s" s="0">
         <v>63</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="2:2">
       <c r="B46" t="s" s="0">
         <v>64</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="2:2">
       <c r="B47" t="s" s="0">
         <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="48.0"/>
+    <col min="3" max="3" customWidth="true" width="31.0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelSheets/Book22.xlsx
+++ b/src/test/resources/ExcelSheets/Book22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14520" windowHeight="11220" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12060" windowHeight="6390" tabRatio="705" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="122">
   <si>
     <t>Row</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>SKU</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -233,6 +236,9 @@
     <t>Dunes at Dawn Grande on Canvas</t>
   </si>
   <si>
+    <t>DC25948C</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 1.125" X 2 3/8" Matt Black Forma Floater</t>
   </si>
@@ -240,16 +246,31 @@
     <t>Graphic Serenity III Grande onCanvas</t>
   </si>
   <si>
+    <t>DC25947C</t>
+  </si>
+  <si>
     <t>Graphic Serenity II Grande onCanvas</t>
   </si>
   <si>
+    <t>DC25946C</t>
+  </si>
+  <si>
     <t>Graphic Serenity I Grande onCanvas</t>
   </si>
   <si>
+    <t>DC25945C</t>
+  </si>
+  <si>
     <t>Classification II Grande on Canvas</t>
   </si>
   <si>
+    <t>DC25944C</t>
+  </si>
+  <si>
     <t>Classification I Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25943C</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -259,7 +280,119 @@
     <t>Round Green Grnade on Canvas</t>
   </si>
   <si>
+    <t>DC25941C</t>
+  </si>
+  <si>
     <t>Round Dot Green Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25942C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2 1/8″ X 1 1/8″ Gold Textured Float</t>
+  </si>
+  <si>
+    <t>Blossom Abstract Dance II Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25940C</t>
+  </si>
+  <si>
+    <t>Blossom Abstract Dance I Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25938C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+3/8″ X 2″ Oak Floater Frame</t>
+  </si>
+  <si>
+    <t>Green Orange Forms III Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25937C</t>
+  </si>
+  <si>
+    <t>Green Orange Forms II Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25936C</t>
+  </si>
+  <si>
+    <t>Morning Fog Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25935</t>
+  </si>
+  <si>
+    <t>Vibrant Serenity II Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25934C</t>
+  </si>
+  <si>
+    <t>Vibrant Serenity I Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25933C</t>
+  </si>
+  <si>
+    <t>Teal Abstractions II Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25932C</t>
+  </si>
+  <si>
+    <t>Teal Abstractions I Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25931C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+9/16" X 2 3/8" White Wash Forma Floater</t>
+  </si>
+  <si>
+    <t>Modern Forms Neutral II Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25930C</t>
+  </si>
+  <si>
+    <t>Modern Forms Neutral I Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25929C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+3/8 "X 2" Maple Floater Frame</t>
+  </si>
+  <si>
+    <t>IN Pursuit of Magic Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25928C</t>
+  </si>
+  <si>
+    <t>Seeking Light Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25927C</t>
+  </si>
+  <si>
+    <t>Solace Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25926C</t>
+  </si>
+  <si>
+    <t>Morning Fog on Canvas</t>
+  </si>
+  <si>
+    <t>DC25925C</t>
   </si>
 </sst>
 </file>
@@ -1204,67 +1337,286 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+      <selection activeCell="A2" sqref="A2:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="48.0"/>
-    <col min="3" max="3" customWidth="true" width="31.0"/>
+    <col min="1" max="1" customWidth="true" width="16.0"/>
+    <col min="2" max="2" customWidth="true" width="39.85546875"/>
+    <col min="3" max="3" customWidth="true" width="48.0"/>
+    <col min="4" max="4" customWidth="true" width="31.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>73</v>
+        <v>78</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>77</v>
+        <v>85</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>78</v>
+        <v>87</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/ExcelSheets/Book22.xlsx
+++ b/src/test/resources/ExcelSheets/Book22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12060" windowHeight="6390" tabRatio="705" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="330" windowWidth="12555" windowHeight="2730" tabRatio="705" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
   <si>
     <t>Row</t>
   </si>
@@ -233,10 +233,126 @@
 1.25 X 2 3/8" Matt White Forma Floater</t>
   </si>
   <si>
-    <t>Dunes at Dawn Grande on Canvas</t>
-  </si>
-  <si>
-    <t>DC25948C</t>
+    <t xml:space="preserve">
+3/8 "X 2" Maple Floater Frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+3/16"X 2 3/8" Edge Matt White Stem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+3/16"X 2 3/8" Edge Ii Bright Silver Stem</t>
+  </si>
+  <si>
+    <t>Dunes at Dawn</t>
+  </si>
+  <si>
+    <t>IP25924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+9/16" X 2 3/8" Matt White Forma Floater</t>
+  </si>
+  <si>
+    <t>Dunes at Dawn on Canvas</t>
+  </si>
+  <si>
+    <t>DC25924C</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>IP25923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+9/16″ X 2 3/8″ Grey White Wash Floater</t>
+  </si>
+  <si>
+    <t>Winter on Canvas</t>
+  </si>
+  <si>
+    <t>DC25923C</t>
+  </si>
+  <si>
+    <t>Jennings Beach</t>
+  </si>
+  <si>
+    <t>IP25922</t>
+  </si>
+  <si>
+    <t>Jennings Beach on Canvas</t>
+  </si>
+  <si>
+    <t>DC25922C</t>
+  </si>
+  <si>
+    <t>Old Saybrook</t>
+  </si>
+  <si>
+    <t>IP25921</t>
+  </si>
+  <si>
+    <t>Old Saybrook on Canvas</t>
+  </si>
+  <si>
+    <t>DC25921C</t>
+  </si>
+  <si>
+    <t>Stonington</t>
+  </si>
+  <si>
+    <t>IP25920</t>
+  </si>
+  <si>
+    <t>Stonington on Canvas</t>
+  </si>
+  <si>
+    <t>DC25920C</t>
+  </si>
+  <si>
+    <t>Winter on Canvas Grande</t>
+  </si>
+  <si>
+    <t>DC25919C</t>
+  </si>
+  <si>
+    <t>Jennings Beach on Canvas Grande</t>
+  </si>
+  <si>
+    <t>DC25918C</t>
+  </si>
+  <si>
+    <t>Old Saybrook on Canvas Grande</t>
+  </si>
+  <si>
+    <t>DC25917C</t>
+  </si>
+  <si>
+    <t>Stonington on Canvas Grande</t>
+  </si>
+  <si>
+    <t>DC25916C</t>
+  </si>
+  <si>
+    <t>Abs Blue Arc</t>
+  </si>
+  <si>
+    <t>IP25915</t>
+  </si>
+  <si>
+    <t>Abs Blue Arc on Canvas</t>
+  </si>
+  <si>
+    <t>DC25915C</t>
+  </si>
+  <si>
+    <t>Round Dot Green</t>
+  </si>
+  <si>
+    <t>IP25914</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -259,140 +375,6 @@
   </si>
   <si>
     <t>DC25945C</t>
-  </si>
-  <si>
-    <t>Classification II Grande on Canvas</t>
-  </si>
-  <si>
-    <t>DC25944C</t>
-  </si>
-  <si>
-    <t>Classification I Grande on Canvas</t>
-  </si>
-  <si>
-    <t>DC25943C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-9/16" X 2 3/8" Silver Forma Floater</t>
-  </si>
-  <si>
-    <t>Round Green Grnade on Canvas</t>
-  </si>
-  <si>
-    <t>DC25941C</t>
-  </si>
-  <si>
-    <t>Round Dot Green Grande on Canvas</t>
-  </si>
-  <si>
-    <t>DC25942C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-2 1/8″ X 1 1/8″ Gold Textured Float</t>
-  </si>
-  <si>
-    <t>Blossom Abstract Dance II Grande on Canvas</t>
-  </si>
-  <si>
-    <t>DC25940C</t>
-  </si>
-  <si>
-    <t>Blossom Abstract Dance I Grande on Canvas</t>
-  </si>
-  <si>
-    <t>DC25938C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-3/8″ X 2″ Oak Floater Frame</t>
-  </si>
-  <si>
-    <t>Green Orange Forms III Grande on Canvas</t>
-  </si>
-  <si>
-    <t>DC25937C</t>
-  </si>
-  <si>
-    <t>Green Orange Forms II Grande on Canvas</t>
-  </si>
-  <si>
-    <t>DC25936C</t>
-  </si>
-  <si>
-    <t>Morning Fog Grande on Canvas</t>
-  </si>
-  <si>
-    <t>DC25935</t>
-  </si>
-  <si>
-    <t>Vibrant Serenity II Grande on Canvas</t>
-  </si>
-  <si>
-    <t>DC25934C</t>
-  </si>
-  <si>
-    <t>Vibrant Serenity I Grande on Canvas</t>
-  </si>
-  <si>
-    <t>DC25933C</t>
-  </si>
-  <si>
-    <t>Teal Abstractions II Grande on Canvas</t>
-  </si>
-  <si>
-    <t>DC25932C</t>
-  </si>
-  <si>
-    <t>Teal Abstractions I Grande on Canvas</t>
-  </si>
-  <si>
-    <t>DC25931C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-9/16" X 2 3/8" White Wash Forma Floater</t>
-  </si>
-  <si>
-    <t>Modern Forms Neutral II Grande on Canvas</t>
-  </si>
-  <si>
-    <t>DC25930C</t>
-  </si>
-  <si>
-    <t>Modern Forms Neutral I Grande on Canvas</t>
-  </si>
-  <si>
-    <t>DC25929C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-3/8 "X 2" Maple Floater Frame</t>
-  </si>
-  <si>
-    <t>IN Pursuit of Magic Grande on Canvas</t>
-  </si>
-  <si>
-    <t>DC25928C</t>
-  </si>
-  <si>
-    <t>Seeking Light Grande on Canvas</t>
-  </si>
-  <si>
-    <t>DC25927C</t>
-  </si>
-  <si>
-    <t>Solace Grande on Canvas</t>
-  </si>
-  <si>
-    <t>DC25926C</t>
-  </si>
-  <si>
-    <t>Morning Fog on Canvas</t>
-  </si>
-  <si>
-    <t>DC25925C</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1319,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C24"/>
@@ -1364,255 +1346,222 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>72</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="C26" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="C4" t="s" s="0">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s" s="0">
         <v>72</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="C5" t="s" s="0">
+    <row r="30" spans="1:3">
+      <c r="A30" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s" s="0">
         <v>72</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="C6" t="s" s="0">
+    <row r="34" spans="1:3">
+      <c r="A34" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s" s="0">
         <v>69</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s" s="0">
+    <row r="36" spans="1:3">
+      <c r="A36" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C37" t="s" s="0">
         <v>69</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
+    <row r="38" spans="1:3">
+      <c r="A38" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B38" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B15" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
+      <c r="C38" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B39" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B16" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
+      <c r="C39" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B40" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B17" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
+      <c r="C40" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B41" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B18" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
-        <v>110</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
-        <v>112</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>111</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="0">
-        <v>119</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>113</v>
+      <c r="C41" t="s" s="0">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelSheets/Book22.xlsx
+++ b/src/test/resources/ExcelSheets/Book22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="330" windowWidth="12555" windowHeight="2730" tabRatio="705" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12555" windowHeight="2700" tabRatio="705" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="122">
   <si>
     <t>Row</t>
   </si>
@@ -355,6 +355,12 @@
     <t>IP25914</t>
   </si>
   <si>
+    <t>Dunes at Dawn Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25948C</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 1.125" X 2 3/8" Matt Black Forma Floater</t>
   </si>
@@ -375,6 +381,18 @@
   </si>
   <si>
     <t>DC25945C</t>
+  </si>
+  <si>
+    <t>Classification II Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25944C</t>
+  </si>
+  <si>
+    <t>Classification I Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25943C</t>
   </si>
 </sst>
 </file>
@@ -1346,13 +1364,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>109</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -1363,7 +1381,7 @@
         <v>112</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4">
@@ -1374,7 +1392,40 @@
         <v>114</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3">

--- a/src/test/resources/ExcelSheets/Book22.xlsx
+++ b/src/test/resources/ExcelSheets/Book22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12555" windowHeight="2700" tabRatio="705" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12855" windowHeight="11220" tabRatio="705" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -12,15 +12,17 @@
     <sheet name="Register" sheetId="3" r:id="rId3"/>
     <sheet name="checkout" sheetId="4" r:id="rId4"/>
     <sheet name="Iconic" sheetId="5" r:id="rId5"/>
-    <sheet name="Iconic Product" sheetId="6" r:id="rId6"/>
+    <sheet name="Iconic Product0" sheetId="6" r:id="rId6"/>
+    <sheet name="Iconic Product1" sheetId="7" r:id="rId7"/>
+    <sheet name="Iconic Product2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:N36"/>
+  <oleSize ref="A1:C36"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="288">
   <si>
     <t>Row</t>
   </si>
@@ -234,13 +236,171 @@
   </si>
   <si>
     <t xml:space="preserve">
+1.125" X 2 3/8" Matt Black Forma Floater</t>
+  </si>
+  <si>
+    <t>Graphic Serenity III Grande onCanvas</t>
+  </si>
+  <si>
+    <t>DC25947C</t>
+  </si>
+  <si>
+    <t>Graphic Serenity II Grande onCanvas</t>
+  </si>
+  <si>
+    <t>DC25946C</t>
+  </si>
+  <si>
+    <t>Graphic Serenity I Grande onCanvas</t>
+  </si>
+  <si>
+    <t>DC25945C</t>
+  </si>
+  <si>
+    <t>Classification II Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25944C</t>
+  </si>
+  <si>
+    <t>Classification I Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25943C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+9/16" X 2 3/8" Silver Forma Floater</t>
+  </si>
+  <si>
+    <t>Round Green Grnade on Canvas</t>
+  </si>
+  <si>
+    <t>DC25941C</t>
+  </si>
+  <si>
+    <t>Round Dot Green Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25942C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2 1/8″ X 1 1/8″ Gold Textured Float</t>
+  </si>
+  <si>
+    <t>Blossom Abstract Dance II Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25940C</t>
+  </si>
+  <si>
+    <t>Blossom Abstract Dance I Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25938C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+3/8″ X 2″ Oak Floater Frame</t>
+  </si>
+  <si>
+    <t>Green Orange Forms III Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25937C</t>
+  </si>
+  <si>
+    <t>Green Orange Forms II Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25936C</t>
+  </si>
+  <si>
+    <t>Morning Fog Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25935</t>
+  </si>
+  <si>
+    <t>Vibrant Serenity II Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25934C</t>
+  </si>
+  <si>
+    <t>Vibrant Serenity I Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25933C</t>
+  </si>
+  <si>
+    <t>Teal Abstractions II Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25932C</t>
+  </si>
+  <si>
+    <t>Teal Abstractions I Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25931C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+9/16" X 2 3/8" White Wash Forma Floater</t>
+  </si>
+  <si>
+    <t>Modern Forms Neutral II Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25930C</t>
+  </si>
+  <si>
+    <t>Modern Forms Neutral I Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25929C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 3/8 "X 2" Maple Floater Frame</t>
+  </si>
+  <si>
+    <t>IN Pursuit of Magic Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25928C</t>
+  </si>
+  <si>
+    <t>Seeking Light Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25927C</t>
+  </si>
+  <si>
+    <t>Solace Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25926C</t>
+  </si>
+  <si>
+    <t>Morning Fog on Canvas</t>
+  </si>
+  <si>
+    <t>DC25925C</t>
   </si>
   <si>
     <t xml:space="preserve">
 3/16"X 2 3/8" Edge Matt White Stem</t>
   </si>
   <si>
+    <t>Morning Fog</t>
+  </si>
+  <si>
+    <t>IP25925</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 3/16"X 2 3/8" Edge Ii Bright Silver Stem</t>
   </si>
@@ -355,51 +515,402 @@
     <t>IP25914</t>
   </si>
   <si>
-    <t>Dunes at Dawn Grande on Canvas</t>
-  </si>
-  <si>
-    <t>DC25948C</t>
+    <t>Round Dot Green on Canvas</t>
+  </si>
+  <si>
+    <t>DC25914C</t>
+  </si>
+  <si>
+    <t>Round Green</t>
+  </si>
+  <si>
+    <t>IP25913</t>
+  </si>
+  <si>
+    <t>Round Green on Canvas</t>
+  </si>
+  <si>
+    <t>DC25913C</t>
   </si>
   <si>
     <t xml:space="preserve">
-1.125" X 2 3/8" Matt Black Forma Floater</t>
-  </si>
-  <si>
-    <t>Graphic Serenity III Grande onCanvas</t>
-  </si>
-  <si>
-    <t>DC25947C</t>
-  </si>
-  <si>
-    <t>Graphic Serenity II Grande onCanvas</t>
-  </si>
-  <si>
-    <t>DC25946C</t>
-  </si>
-  <si>
-    <t>Graphic Serenity I Grande onCanvas</t>
-  </si>
-  <si>
-    <t>DC25945C</t>
-  </si>
-  <si>
-    <t>Classification II Grande on Canvas</t>
-  </si>
-  <si>
-    <t>DC25944C</t>
-  </si>
-  <si>
-    <t>Classification I Grande on Canvas</t>
-  </si>
-  <si>
-    <t>DC25943C</t>
+1" X 2" White Mat Stem Haven</t>
+  </si>
+  <si>
+    <t>Tierra Verde II</t>
+  </si>
+  <si>
+    <t>DC25912</t>
+  </si>
+  <si>
+    <t>Tierra Verde I</t>
+  </si>
+  <si>
+    <t>DC25911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+13/16" Gold Stem Fade</t>
+  </si>
+  <si>
+    <t>Blossom Abstract Dance II</t>
+  </si>
+  <si>
+    <t>IP25910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+3/8 "X 2" Gold Floater Frame</t>
+  </si>
+  <si>
+    <t>Blossom Abstract Dance II on Canvas</t>
+  </si>
+  <si>
+    <t>DC25910C</t>
+  </si>
+  <si>
+    <t>Blossom Abstract Dance I</t>
+  </si>
+  <si>
+    <t>IP25909</t>
+  </si>
+  <si>
+    <t>Blossom Abstract Dance I on Canvas</t>
+  </si>
+  <si>
+    <t>DC25909C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1" Clear Veneer Square Panel</t>
+  </si>
+  <si>
+    <t>Modern Forms Neutral II</t>
+  </si>
+  <si>
+    <t>IP25908</t>
+  </si>
+  <si>
+    <t>Modern Forms Neutral on Canvas II</t>
+  </si>
+  <si>
+    <t>DC25908C</t>
+  </si>
+  <si>
+    <t>Modern Forms Neutral I</t>
+  </si>
+  <si>
+    <t>IP25907</t>
+  </si>
+  <si>
+    <t>Modern Forms Neutral I on Canvas</t>
+  </si>
+  <si>
+    <t>DC25907C</t>
+  </si>
+  <si>
+    <t>Green Orange Forms III</t>
+  </si>
+  <si>
+    <t>IP25906</t>
+  </si>
+  <si>
+    <t>Green Orange Forms III on Canvas</t>
+  </si>
+  <si>
+    <t>DC25906C</t>
+  </si>
+  <si>
+    <t>Green Orange Forms II</t>
+  </si>
+  <si>
+    <t>IP25905</t>
+  </si>
+  <si>
+    <t>Green Orange Forms II on Canvas</t>
+  </si>
+  <si>
+    <t>DC25905C</t>
+  </si>
+  <si>
+    <t>Vibrant Serenity II</t>
+  </si>
+  <si>
+    <t>IP25904</t>
+  </si>
+  <si>
+    <t>Vibrant Serenity II on Canvas</t>
+  </si>
+  <si>
+    <t>DC25904C</t>
+  </si>
+  <si>
+    <t>Vibrant Serenity I</t>
+  </si>
+  <si>
+    <t>IP25903</t>
+  </si>
+  <si>
+    <t>Vibrant Serenity I on Canvas</t>
+  </si>
+  <si>
+    <t>DC25903C</t>
+  </si>
+  <si>
+    <t>Teal Abstractions II</t>
+  </si>
+  <si>
+    <t>IP25900</t>
+  </si>
+  <si>
+    <t>Teal Abstractions II on Canvas</t>
+  </si>
+  <si>
+    <t>DC25900C</t>
+  </si>
+  <si>
+    <t>Teal Abstractions I</t>
+  </si>
+  <si>
+    <t>IP25899</t>
+  </si>
+  <si>
+    <t>Teal Abstractions I on Canvas</t>
+  </si>
+  <si>
+    <t>DC25899C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+3/16"X 2 3/8" Edge high gloss black Stem</t>
+  </si>
+  <si>
+    <t>Graphic Serenity III</t>
+  </si>
+  <si>
+    <t>IP25896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+9/16" X 2 3/8" Matt Black Forma Floater</t>
+  </si>
+  <si>
+    <t>Graphic Serenity III on Canvas</t>
+  </si>
+  <si>
+    <t>DC25896C</t>
+  </si>
+  <si>
+    <t>Graphic Serenity II</t>
+  </si>
+  <si>
+    <t>IP25895</t>
+  </si>
+  <si>
+    <t>Graphic Serenity II on Canvas</t>
+  </si>
+  <si>
+    <t>DC25895C</t>
+  </si>
+  <si>
+    <t>Graphic Serenity I</t>
+  </si>
+  <si>
+    <t>IP25894</t>
+  </si>
+  <si>
+    <t>Graphic Serenity I onCanvas</t>
+  </si>
+  <si>
+    <t>DC25894C</t>
+  </si>
+  <si>
+    <t>Waves of Leaves</t>
+  </si>
+  <si>
+    <t>IP25893</t>
+  </si>
+  <si>
+    <t>Waves of Leaves on Canvas</t>
+  </si>
+  <si>
+    <t>DC25893C</t>
+  </si>
+  <si>
+    <t>Forever Ever II Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25891C</t>
+  </si>
+  <si>
+    <t>Forever Ever I Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25890C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1 .25 "X 2" Gold Floater Frame</t>
+  </si>
+  <si>
+    <t>Salt of the earth Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25889C</t>
+  </si>
+  <si>
+    <t>Kindred on Grande Canvas</t>
+  </si>
+  <si>
+    <t>DC25888C</t>
+  </si>
+  <si>
+    <t>the Boardwalk Grande on Canvas</t>
+  </si>
+  <si>
+    <t>DC25887C</t>
+  </si>
+  <si>
+    <t>Classic II</t>
+  </si>
+  <si>
+    <t>IP25886</t>
+  </si>
+  <si>
+    <t>Classic I</t>
+  </si>
+  <si>
+    <t>IP25885</t>
+  </si>
+  <si>
+    <t>Classification II</t>
+  </si>
+  <si>
+    <t>IP25884</t>
+  </si>
+  <si>
+    <t>Classification II on Canvas</t>
+  </si>
+  <si>
+    <t>DC25884C</t>
+  </si>
+  <si>
+    <t>Classification I</t>
+  </si>
+  <si>
+    <t>IP25883</t>
+  </si>
+  <si>
+    <t>classification I on Canvas</t>
+  </si>
+  <si>
+    <t>DC25883C</t>
+  </si>
+  <si>
+    <t>Forever Ever II</t>
+  </si>
+  <si>
+    <t>DC25882</t>
+  </si>
+  <si>
+    <t>Forever Ever II on Canvas</t>
+  </si>
+  <si>
+    <t>DC25882C</t>
+  </si>
+  <si>
+    <t>Forever Ever I</t>
+  </si>
+  <si>
+    <t>DC25881</t>
+  </si>
+  <si>
+    <t>Forever Ever I on Canvas</t>
+  </si>
+  <si>
+    <t>DC25881C</t>
+  </si>
+  <si>
+    <t>IN Pursuit of Magic</t>
+  </si>
+  <si>
+    <t>IP25880</t>
+  </si>
+  <si>
+    <t>IN Pursuit of Magic on Canvas</t>
+  </si>
+  <si>
+    <t>DC25880C</t>
+  </si>
+  <si>
+    <t>Solace</t>
+  </si>
+  <si>
+    <t>IP25879</t>
+  </si>
+  <si>
+    <t>Solace on Canvas</t>
+  </si>
+  <si>
+    <t>DC25879C</t>
+  </si>
+  <si>
+    <t>Salt of the earth</t>
+  </si>
+  <si>
+    <t>IP25878</t>
+  </si>
+  <si>
+    <t>Salt of the earth on Canvas</t>
+  </si>
+  <si>
+    <t>DC25878C</t>
+  </si>
+  <si>
+    <t>Kindred</t>
+  </si>
+  <si>
+    <t>IP25877</t>
+  </si>
+  <si>
+    <t>Kindred on Canvas</t>
+  </si>
+  <si>
+    <t>DC25877C</t>
+  </si>
+  <si>
+    <t>the Boardwalk</t>
+  </si>
+  <si>
+    <t>IP25876</t>
+  </si>
+  <si>
+    <t>the Boardwalk on Canvas</t>
+  </si>
+  <si>
+    <t>DC25876C</t>
+  </si>
+  <si>
+    <t>Seeking Light</t>
+  </si>
+  <si>
+    <t>IP25875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+13/16" Collins Silver</t>
+  </si>
+  <si>
+    <t>Green Striped Landscape II</t>
+  </si>
+  <si>
+    <t>IP25769</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -811,9 +1322,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.7109375"/>
-    <col min="2" max="2" customWidth="true" width="21.28515625"/>
-    <col min="3" max="3" customWidth="true" width="17.5703125"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
@@ -929,16 +1440,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.7109375"/>
-    <col min="2" max="2" customWidth="true" width="20.28515625"/>
-    <col min="3" max="3" customWidth="true" width="14.7109375"/>
-    <col min="4" max="4" customWidth="true" width="14.85546875"/>
-    <col min="5" max="5" customWidth="true" width="29.5703125"/>
-    <col min="6" max="6" customWidth="true" width="19.0"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -955,7 +1466,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -969,7 +1480,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -986,7 +1497,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1021,19 +1532,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.7109375"/>
-    <col min="2" max="2" customWidth="true" width="20.85546875"/>
-    <col min="3" max="3" customWidth="true" width="22.85546875"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1044,18 +1555,18 @@
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1089,244 +1600,244 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="14.5703125"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" t="s" s="0">
+      <c r="B14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="B16" t="s" s="0">
+      <c r="B16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" t="s" s="0">
+      <c r="B17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" t="s" s="0">
+      <c r="B18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" t="s" s="0">
+      <c r="B20" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" t="s" s="0">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" t="s" s="0">
+      <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" t="s" s="0">
+      <c r="B24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" t="s" s="0">
+      <c r="B25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" t="s" s="0">
+      <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" t="s" s="0">
+      <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" t="s" s="0">
+      <c r="B28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" t="s" s="0">
+      <c r="B29" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" t="s" s="0">
+      <c r="B30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" t="s" s="0">
+      <c r="B31" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" t="s" s="0">
+      <c r="B32" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" t="s" s="0">
+      <c r="B33" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" t="s" s="0">
+      <c r="B34" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" t="s" s="0">
+      <c r="B35" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" t="s" s="0">
+      <c r="B36" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" t="s" s="0">
+      <c r="B37" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" t="s" s="0">
+      <c r="B38" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" t="s" s="0">
+      <c r="B39" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" t="s" s="0">
+      <c r="B40" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" t="s" s="0">
+      <c r="B41" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" t="s" s="0">
+      <c r="B42" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" t="s" s="0">
+      <c r="B43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" t="s" s="0">
+      <c r="B44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" t="s" s="0">
+      <c r="B45" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" t="s" s="0">
+      <c r="B46" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" t="s" s="0">
+      <c r="B47" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1337,18 +1848,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C24"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.0"/>
-    <col min="2" max="2" customWidth="true" width="39.85546875"/>
-    <col min="3" max="3" customWidth="true" width="48.0"/>
-    <col min="4" max="4" customWidth="true" width="31.0"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1362,261 +1873,1160 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>110</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B20" t="s">
         <v>109</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>112</v>
-      </c>
-      <c r="C3" t="s" s="0">
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>185</v>
+      </c>
+      <c r="B53" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" t="s">
+        <v>190</v>
+      </c>
+      <c r="C56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" t="s">
+        <v>192</v>
+      </c>
+      <c r="C57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>195</v>
+      </c>
+      <c r="B58" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>197</v>
+      </c>
+      <c r="B59" t="s">
+        <v>196</v>
+      </c>
+      <c r="C59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>199</v>
+      </c>
+      <c r="B60" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>203</v>
+      </c>
+      <c r="B62" t="s">
+        <v>202</v>
+      </c>
+      <c r="C62" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>207</v>
+      </c>
+      <c r="B64" t="s">
+        <v>206</v>
+      </c>
+      <c r="C64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>209</v>
+      </c>
+      <c r="B65" t="s">
+        <v>208</v>
+      </c>
+      <c r="C65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>211</v>
+      </c>
+      <c r="B66" t="s">
+        <v>210</v>
+      </c>
+      <c r="C66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>213</v>
+      </c>
+      <c r="B67" t="s">
+        <v>212</v>
+      </c>
+      <c r="C67" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>216</v>
+      </c>
+      <c r="B68" t="s">
+        <v>215</v>
+      </c>
+      <c r="C68" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>219</v>
+      </c>
+      <c r="B69" t="s">
+        <v>218</v>
+      </c>
+      <c r="C69" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>221</v>
+      </c>
+      <c r="B70" t="s">
+        <v>220</v>
+      </c>
+      <c r="C70" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>223</v>
+      </c>
+      <c r="B71" t="s">
+        <v>222</v>
+      </c>
+      <c r="C71" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>225</v>
+      </c>
+      <c r="B72" t="s">
+        <v>224</v>
+      </c>
+      <c r="C72" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>227</v>
+      </c>
+      <c r="B73" t="s">
+        <v>226</v>
+      </c>
+      <c r="C73" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>229</v>
+      </c>
+      <c r="B74" t="s">
+        <v>228</v>
+      </c>
+      <c r="C74" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>231</v>
+      </c>
+      <c r="B75" t="s">
+        <v>230</v>
+      </c>
+      <c r="C75" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>233</v>
+      </c>
+      <c r="B76" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>235</v>
+      </c>
+      <c r="B77" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>238</v>
+      </c>
+      <c r="B78" t="s">
+        <v>237</v>
+      </c>
+      <c r="C78" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>240</v>
+      </c>
+      <c r="B79" t="s">
+        <v>239</v>
+      </c>
+      <c r="C79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>242</v>
+      </c>
+      <c r="B80" t="s">
+        <v>241</v>
+      </c>
+      <c r="C80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>244</v>
+      </c>
+      <c r="B81" t="s">
+        <v>243</v>
+      </c>
+      <c r="C81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>246</v>
+      </c>
+      <c r="B82" t="s">
+        <v>245</v>
+      </c>
+      <c r="C82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>248</v>
+      </c>
+      <c r="B83" t="s">
+        <v>247</v>
+      </c>
+      <c r="C83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>250</v>
+      </c>
+      <c r="B84" t="s">
+        <v>249</v>
+      </c>
+      <c r="C84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>252</v>
+      </c>
+      <c r="B85" t="s">
+        <v>251</v>
+      </c>
+      <c r="C85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>254</v>
+      </c>
+      <c r="B86" t="s">
+        <v>253</v>
+      </c>
+      <c r="C86" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>256</v>
+      </c>
+      <c r="B87" t="s">
+        <v>255</v>
+      </c>
+      <c r="C87" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>258</v>
+      </c>
+      <c r="B88" t="s">
+        <v>257</v>
+      </c>
+      <c r="C88" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>260</v>
+      </c>
+      <c r="B89" t="s">
+        <v>259</v>
+      </c>
+      <c r="C89" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>262</v>
+      </c>
+      <c r="B90" t="s">
+        <v>261</v>
+      </c>
+      <c r="C90" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>264</v>
+      </c>
+      <c r="B91" t="s">
+        <v>263</v>
+      </c>
+      <c r="C91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>266</v>
+      </c>
+      <c r="B92" t="s">
+        <v>265</v>
+      </c>
+      <c r="C92" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="C4" t="s" s="0">
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>268</v>
+      </c>
+      <c r="B93" t="s">
+        <v>267</v>
+      </c>
+      <c r="C93" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>270</v>
+      </c>
+      <c r="B94" t="s">
+        <v>269</v>
+      </c>
+      <c r="C94" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>119</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="B28" t="s" s="0">
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>272</v>
+      </c>
+      <c r="B95" t="s">
+        <v>271</v>
+      </c>
+      <c r="C95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>274</v>
+      </c>
+      <c r="B96" t="s">
+        <v>273</v>
+      </c>
+      <c r="C96" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>276</v>
+      </c>
+      <c r="B97" t="s">
+        <v>275</v>
+      </c>
+      <c r="C97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>278</v>
+      </c>
+      <c r="B98" t="s">
+        <v>277</v>
+      </c>
+      <c r="C98" t="s">
         <v>81</v>
       </c>
-      <c r="C28" t="s" s="0">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="C30" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="B31" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="C31" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B32" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="C32" t="s" s="0">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B33" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="C33" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="B34" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="C34" t="s" s="0">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="B35" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="C35" t="s" s="0">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="B36" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C36" t="s" s="0">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="B37" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="C37" t="s" s="0">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="B38" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="C38" t="s" s="0">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="B39" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="C39" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="B40" t="s" s="0">
-        <v>105</v>
-      </c>
-      <c r="C40" t="s" s="0">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="B41" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="C41" t="s" s="0">
-        <v>72</v>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>280</v>
+      </c>
+      <c r="B99" t="s">
+        <v>279</v>
+      </c>
+      <c r="C99" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>282</v>
+      </c>
+      <c r="B100" t="s">
+        <v>281</v>
+      </c>
+      <c r="C100" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>284</v>
+      </c>
+      <c r="B101" t="s">
+        <v>283</v>
+      </c>
+      <c r="C101" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>